--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExecutionTestData\Batch1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -478,30 +478,12 @@
   <si>
     <t>121212</t>
   </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote20_Android_11.0.0_765c8</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyFold_Android_9.0.0_d69de</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote20_Android_12.0.0_2b7fa</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ8_Android_10.0.0_882d2</t>
-  </si>
-  <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,16 +528,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -631,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,56 +653,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1232,152 +1169,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="21" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1387,192 +1213,30 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1582,62 +1246,8 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1647,62 +1257,8 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1712,62 +1268,8 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1777,62 +1279,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-      <c r="U9" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1842,69 +1290,15 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:U2">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:U2">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2008,7 +1402,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -2073,7 +1467,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2189,7 +1583,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2215,7 +1609,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -478,12 +478,27 @@
   <si>
     <t>121212</t>
   </si>
+  <si>
+    <t>SAMSUNG_GalaxyFold_Android_9.0.0_d69de</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyNote20_Android_12.0.0_2b7fa</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ8_Android_10.0.0_882d2</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +543,16 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -603,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,7 +680,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,19 +1195,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="21" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1191,19 +1220,127 @@
       <c r="C1" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1213,8 +1350,62 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1224,8 +1415,62 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1235,8 +1480,62 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1246,8 +1545,62 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1257,8 +1610,62 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1268,8 +1675,62 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1279,8 +1740,62 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1290,14 +1805,68 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:U2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:U2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1402,7 +1971,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1467,7 +2036,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1583,7 +2152,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1609,7 +2178,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -478,27 +478,12 @@
   <si>
     <t>121212</t>
   </si>
-  <si>
-    <t>SAMSUNG_GalaxyFold_Android_9.0.0_d69de</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote20_Android_12.0.0_2b7fa</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ8_Android_10.0.0_882d2</t>
-  </si>
-  <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,16 +528,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -628,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,8 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,22 +1168,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="21" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1220,62 +1190,8 @@
       <c r="C1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1285,62 +1201,8 @@
       <c r="C2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1350,62 +1212,8 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1415,62 +1223,8 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1480,62 +1234,8 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1545,62 +1245,8 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1610,62 +1256,8 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1675,62 +1267,8 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1740,62 +1278,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-      <c r="U9" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1805,68 +1289,14 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:U2">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:U2">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1971,7 +1401,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -2036,7 +1466,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2152,7 +1582,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2178,7 +1608,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -478,12 +478,39 @@
   <si>
     <t>121212</t>
   </si>
+  <si>
+    <t>SAMSUNG_GalaxyNote20_Android_12.0.0_2b7fa</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ8_Android_10.0.0_882d2</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>ONEPLUS_5_Android_9.0.0_d9e3e</t>
+  </si>
+  <si>
+    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
+  </si>
+  <si>
+    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
+  </si>
+  <si>
+    <t>REALME_9i_Android_11.0.0_2410</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,11 +552,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -545,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -580,21 +602,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,29 +645,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1168,135 +1177,619 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="20"/>
+    <col min="2" max="2" width="37.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="42" style="20" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="17.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="G2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="D4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="D5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="D6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="D7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="D8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14">
+        <v>8</v>
+      </c>
+      <c r="J9" s="14">
+        <v>9</v>
+      </c>
+      <c r="K9" s="14">
+        <v>10</v>
+      </c>
+      <c r="L9" s="14">
+        <v>11</v>
+      </c>
+      <c r="M9" s="14">
+        <v>12</v>
+      </c>
+      <c r="N9" s="14">
+        <v>13</v>
+      </c>
+      <c r="O9" s="14">
+        <v>14</v>
+      </c>
+      <c r="P9" s="14">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>16</v>
+      </c>
+      <c r="R9" s="14">
+        <v>17</v>
+      </c>
+      <c r="S9" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:S2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:S2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1401,7 +1894,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1466,7 +1959,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="15"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1582,7 +2075,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1608,7 +2101,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1685,327 +2178,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>138</v>
       </c>
     </row>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -477,12 +477,6 @@
   </si>
   <si>
     <t>121212</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote20_Android_12.0.0_2b7fa</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ8_Android_10.0.0_882d2</t>
   </si>
   <si>
     <t>10.0.0</t>
@@ -655,12 +649,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -670,6 +658,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1177,142 +1171,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="20"/>
-    <col min="2" max="2" width="37.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="42" style="20" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="17.140625" style="20"/>
+    <col min="1" max="1" width="17.140625" style="18"/>
+    <col min="2" max="2" width="37.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="18" customWidth="1"/>
+    <col min="5" max="7" width="17.140625" style="18"/>
+    <col min="8" max="8" width="42.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="18"/>
+    <col min="12" max="12" width="43" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="17.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="19" t="s">
+      <c r="K1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="E2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="J2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="M2" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1351,322 +1315,214 @@
       <c r="M3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="M4" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="N5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
@@ -1705,91 +1561,55 @@
       <c r="M9" s="14">
         <v>12</v>
       </c>
-      <c r="N9" s="14">
-        <v>13</v>
-      </c>
-      <c r="O9" s="14">
-        <v>14</v>
-      </c>
-      <c r="P9" s="14">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>16</v>
-      </c>
-      <c r="R9" s="14">
-        <v>17</v>
-      </c>
-      <c r="S9" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:S2">
+  <conditionalFormatting sqref="B2:M2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:S2">
+  <conditionalFormatting sqref="B2:M2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1894,7 +1714,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1959,7 +1779,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2075,7 +1895,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2101,7 +1921,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\Milestone2_ExecutionTestRun1\Execution Results\ExecutionTestData\New folder\2_skippedBatch1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4EAA0A-B714-46A9-8ADD-C24E639C73F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -485,9 +486,6 @@
     <t>12.0.0</t>
   </si>
   <si>
-    <t>ONEPLUS_5_Android_9.0.0_d9e3e</t>
-  </si>
-  <si>
     <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
   </si>
   <si>
@@ -503,7 +501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,6 +773,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -810,6 +825,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -985,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -1170,30 +1202,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="18"/>
-    <col min="2" max="2" width="37.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="18" customWidth="1"/>
-    <col min="5" max="7" width="17.140625" style="18"/>
-    <col min="8" max="8" width="42.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="18"/>
-    <col min="12" max="12" width="43" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="17.140625" style="18"/>
+    <col min="2" max="2" width="34.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="18" customWidth="1"/>
+    <col min="4" max="6" width="17.140625" style="18"/>
+    <col min="7" max="7" width="44.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
@@ -1204,48 +1232,36 @@
         <v>149</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>151</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>139</v>
@@ -1254,7 +1270,7 @@
         <v>139</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>139</v>
@@ -1262,20 +1278,8 @@
       <c r="I2" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
@@ -1303,61 +1307,37 @@
       <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>44</v>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
@@ -1385,20 +1365,8 @@
       <c r="I5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -1426,20 +1394,8 @@
       <c r="I6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
@@ -1467,20 +1423,8 @@
       <c r="I7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -1508,61 +1452,37 @@
       <c r="I8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="14">
-        <v>8</v>
-      </c>
-      <c r="J9" s="14">
-        <v>9</v>
-      </c>
-      <c r="K9" s="14">
-        <v>10</v>
-      </c>
-      <c r="L9" s="14">
-        <v>11</v>
-      </c>
-      <c r="M9" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>31</v>
       </c>
@@ -1590,26 +1510,14 @@
       <c r="I10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:M2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1620,7 +1528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1985,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_skipBackup\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_skipbatch\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -1168,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,12 +1181,11 @@
     <col min="3" max="3" width="31.85546875" style="18" customWidth="1"/>
     <col min="4" max="5" width="17.140625" style="18"/>
     <col min="6" max="6" width="44.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="17.140625" style="18"/>
+    <col min="7" max="7" width="40.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
@@ -1206,13 +1205,10 @@
         <v>151</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -1232,13 +1228,10 @@
         <v>146</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
@@ -1260,11 +1253,8 @@
       <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1284,13 +1274,10 @@
         <v>43</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
@@ -1312,11 +1299,8 @@
       <c r="G5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -1338,11 +1322,8 @@
       <c r="G6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
@@ -1364,11 +1345,8 @@
       <c r="G7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -1390,11 +1368,8 @@
       <c r="G8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1414,13 +1389,10 @@
         <v>8</v>
       </c>
       <c r="G9" s="14">
-        <v>9</v>
-      </c>
-      <c r="H9" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>31</v>
       </c>
@@ -1442,17 +1414,14 @@
       <c r="G10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H2">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_skipbatch\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace\DBS_Automation\ExecutionTestData\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -491,10 +485,10 @@
     <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
   </si>
   <si>
-    <t>REALME_9i_Android_11.0.0_2410</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
+    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
   </si>
 </sst>
 </file>
@@ -985,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1071,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1098,13 +1092,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1121,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1148,13 +1142,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1170,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,16 +1190,16 @@
         <v>149</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,22 +1207,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1258,23 +1252,23 @@
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>52</v>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,22 +1276,22 @@
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,22 +1299,22 @@
         <v>27</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,22 +1322,22 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,22 +1345,22 @@
         <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,22 +1368,22 @@
         <v>30</v>
       </c>
       <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="14">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
         <v>5</v>
       </c>
-      <c r="E9" s="14">
+      <c r="G9" s="14">
         <v>6</v>
-      </c>
-      <c r="F9" s="14">
-        <v>8</v>
-      </c>
-      <c r="G9" s="14">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,67 +1521,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1655,32 +1649,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1708,28 +1702,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1758,32 +1752,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1811,327 +1805,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace\DBS_Automation\ExecutionTestData\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new added device\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -476,19 +476,25 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
-  </si>
-  <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
+    <t>XIAOMI_RedmiNote11T_Android_11.0.0_668ba</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t>OPPO_A74_Android_11.0.0_a3ebb</t>
+  </si>
+  <si>
+    <t>ONEPLUS_OnePlus6_Android_10.0.0_1688c</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS21Plus_Android_11.0.0_53919</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM11_Android_11.0.0_c72bc</t>
+  </si>
+  <si>
+    <t>REALME_X7_Android_11.0.0_f8c45</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -590,12 +596,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,13 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
@@ -655,6 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -980,7 +996,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,71 +1178,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="18"/>
-    <col min="2" max="2" width="34.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.140625" style="18"/>
-    <col min="6" max="6" width="44.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="17.140625" style="18"/>
+    <col min="1" max="1" width="17.140625" style="16"/>
+    <col min="2" max="2" width="34.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="16" customWidth="1"/>
+    <col min="4" max="6" width="17.140625" style="16"/>
+    <col min="7" max="7" width="44.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="G1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="H1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="G2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1247,175 +1276,223 @@
       <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="G4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="H5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="H7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="H8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="14">
+        <v>9</v>
+      </c>
+      <c r="I9" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>32</v>
       </c>
+      <c r="H10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1429,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1597,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1585,7 +1662,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="19"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1701,7 +1778,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1727,7 +1804,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="20"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new added device\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -476,25 +476,37 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>XIAOMI_RedmiNote11T_Android_11.0.0_668ba</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t>OPPO_A74_Android_11.0.0_a3ebb</t>
-  </si>
-  <si>
-    <t>ONEPLUS_OnePlus6_Android_10.0.0_1688c</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS21Plus_Android_11.0.0_53919</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM11_Android_11.0.0_c72bc</t>
-  </si>
-  <si>
-    <t>REALME_X7_Android_11.0.0_f8c45</t>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
+  </si>
+  <si>
+    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
+  </si>
+  <si>
+    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
+  </si>
+  <si>
+    <t>OPPO_Realme2_Android_9.0.0_911fd</t>
+  </si>
+  <si>
+    <t>REALME_9i_Android_11.0.0_2410</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
   </si>
 </sst>
 </file>
@@ -558,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -596,27 +608,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,26 +648,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -996,7 +998,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,170 +1180,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="16"/>
-    <col min="2" max="2" width="34.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="16" customWidth="1"/>
-    <col min="4" max="6" width="17.140625" style="16"/>
-    <col min="7" max="7" width="44.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.140625" style="16"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="I4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="L4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1369,130 +1473,235 @@
       <c r="I6" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E9" s="18">
         <v>4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="18">
         <v>5</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="18">
         <v>6</v>
       </c>
-      <c r="G9" s="14">
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
         <v>8</v>
       </c>
-      <c r="H9" s="14">
+      <c r="J9" s="18">
         <v>9</v>
       </c>
-      <c r="I9" s="14">
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:P2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:P2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1506,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1806,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1662,7 +1871,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1778,7 +1987,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1804,7 +2013,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1881,327 +2090,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>136</v>
       </c>
     </row>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\new android batch added\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -473,40 +473,25 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
     <t>12.0.0</t>
   </si>
   <si>
-    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
-  </si>
-  <si>
-    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
-  </si>
-  <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>OPPO_Realme2_Android_9.0.0_911fd</t>
-  </si>
-  <si>
-    <t>REALME_9i_Android_11.0.0_2410</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
+    <t>SAMSUNG_GalaxyA52_Android_12.0.0_fcafd</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi8A_Android_9.0.0_257fe</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyNote9_Android_8.1.0_53a7f</t>
+  </si>
+  <si>
+    <t>OPPO_A11K_Android_9.0.0_eb877</t>
+  </si>
+  <si>
+    <t>VIVO_Y91i_Android_8.1.0_73b3b</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG9Power_Android_11.0.0_7e0ce</t>
   </si>
 </sst>
 </file>
@@ -570,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -608,12 +593,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,9 +685,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1180,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,60 +1206,32 @@
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1253,49 +1239,22 @@
         <v>144</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1317,35 +1276,8 @@
       <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1367,35 +1299,8 @@
       <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1417,35 +1322,8 @@
       <c r="G5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1467,35 +1345,8 @@
       <c r="G6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1517,35 +1368,8 @@
       <c r="G7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1567,35 +1391,8 @@
       <c r="G8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1617,35 +1414,8 @@
       <c r="G9" s="18">
         <v>6</v>
       </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1667,41 +1437,14 @@
       <c r="G10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:P2">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:P2">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\new android batch added\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="160">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -473,25 +473,52 @@
     <t>121212</t>
   </si>
   <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
     <t>12.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyA52_Android_12.0.0_fcafd</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi8A_Android_9.0.0_257fe</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote9_Android_8.1.0_53a7f</t>
-  </si>
-  <si>
-    <t>OPPO_A11K_Android_9.0.0_eb877</t>
-  </si>
-  <si>
-    <t>VIVO_Y91i_Android_8.1.0_73b3b</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG9Power_Android_11.0.0_7e0ce</t>
+    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
+  </si>
+  <si>
+    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
+  </si>
+  <si>
+    <t>REALME_9i_Android_11.0.0_2410</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote11T_Android_11.0.0_668ba</t>
+  </si>
+  <si>
+    <t>OPPO_A74_Android_11.0.0_a3ebb</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM11_Android_11.0.0_c72bc</t>
+  </si>
+  <si>
+    <t>REALME_X7_Android_11.0.0_f8c45</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi9i_Android_10.0.0_114f3</t>
+  </si>
+  <si>
+    <t>HUAWEI_Y6_Android_8.0.0_029bf</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
   </si>
 </sst>
 </file>
@@ -595,16 +622,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,20 +706,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1011,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1194,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,55 +1252,104 @@
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="13" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="H1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1276,8 +1371,32 @@
       <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1299,8 +1418,32 @@
       <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1322,8 +1465,32 @@
       <c r="G5" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1345,8 +1512,32 @@
       <c r="G6" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1368,8 +1559,32 @@
       <c r="G7" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1391,8 +1606,32 @@
       <c r="G8" s="16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1414,8 +1653,32 @@
       <c r="G9" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1437,16 +1700,50 @@
       <c r="G10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+      <formula>LEFT((N2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((N2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1458,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1846,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1614,7 +1911,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="23"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1730,7 +2027,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1756,7 +2053,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\New folder\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -491,34 +491,10 @@
     <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
   </si>
   <si>
-    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
-  </si>
-  <si>
     <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
   </si>
   <si>
     <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote11T_Android_11.0.0_668ba</t>
-  </si>
-  <si>
-    <t>OPPO_A74_Android_11.0.0_a3ebb</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM11_Android_11.0.0_c72bc</t>
-  </si>
-  <si>
-    <t>REALME_X7_Android_11.0.0_f8c45</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi9i_Android_10.0.0_114f3</t>
-  </si>
-  <si>
-    <t>HUAWEI_Y6_Android_8.0.0_029bf</t>
-  </si>
-  <si>
-    <t>8.0.0</t>
   </si>
 </sst>
 </file>
@@ -582,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -620,42 +596,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,8 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,7 +666,23 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1057,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1240,116 +1200,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="13" width="17.140625" style="12"/>
+    <col min="4" max="7" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>156</v>
+      <c r="B1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>137</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1377,73 +1297,37 @@
       <c r="I3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1471,26 +1355,8 @@
       <c r="I5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1518,26 +1384,8 @@
       <c r="I6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1565,26 +1413,8 @@
       <c r="I7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1612,73 +1442,37 @@
       <c r="I8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
         <v>10</v>
       </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1706,44 +1500,26 @@
       <c r="I10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:M2">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="beginsWith" dxfId="5" priority="7" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M2">
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="beginsWith" dxfId="4" priority="8" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((N2),LEN("Working"))=("Working")</formula>
+  <conditionalFormatting sqref="H2:I2">
+    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
+      <formula>LEFT((H2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((N2),LEN("Not Working"))=("Not Working")</formula>
+  <conditionalFormatting sqref="H2:I2">
+    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
+      <formula>LEFT((H2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1755,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1622,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1911,7 +1687,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2027,7 +1803,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -2053,7 +1829,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\New folder\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\8device\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="148">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -479,22 +479,10 @@
     <t>12.0.0</t>
   </si>
   <si>
-    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
-  </si>
-  <si>
     <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
   </si>
   <si>
     <t>REALME_9i_Android_11.0.0_2410</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
   </si>
 </sst>
 </file>
@@ -666,23 +654,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1200,18 +1172,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="17.140625" style="12"/>
+    <col min="3" max="3" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1222,54 +1194,30 @@
         <v>147</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1285,49 +1233,25 @@
       <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1343,20 +1267,8 @@
       <c r="E5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1372,20 +1284,8 @@
       <c r="E6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1401,20 +1301,8 @@
       <c r="E7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1430,49 +1318,25 @@
       <c r="E8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9" s="18">
-        <v>5</v>
-      </c>
-      <c r="F9" s="18">
-        <v>6</v>
-      </c>
-      <c r="G9" s="18">
-        <v>7</v>
-      </c>
-      <c r="H9" s="18">
-        <v>9</v>
-      </c>
-      <c r="I9" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1488,38 +1352,26 @@
       <c r="E10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
-    <cfRule type="beginsWith" dxfId="5" priority="7" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="3" priority="7" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
-    <cfRule type="beginsWith" dxfId="4" priority="8" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="2" priority="8" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I2">
+  <conditionalFormatting sqref="D2:E2">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((H2),LEN("Working"))=("Working")</formula>
+      <formula>LEFT((D2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I2">
+  <conditionalFormatting sqref="D2:E2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((H2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((D2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\8device\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -1172,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,7 @@
     <col min="3" max="3" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1196,11 +1196,8 @@
       <c r="D1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1213,11 +1210,8 @@
       <c r="D2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1230,11 +1224,8 @@
       <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1247,11 +1238,8 @@
       <c r="D4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1264,11 +1252,8 @@
       <c r="D5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1281,11 +1266,8 @@
       <c r="D6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1298,11 +1280,8 @@
       <c r="D7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1315,11 +1294,8 @@
       <c r="D8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1332,11 +1308,8 @@
       <c r="D9" s="18">
         <v>9</v>
       </c>
-      <c r="E9" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1347,9 +1320,6 @@
         <v>32</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1364,12 +1334,12 @@
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E2">
+  <conditionalFormatting sqref="D2">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((D2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E2">
+  <conditionalFormatting sqref="D2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((D2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -473,16 +473,16 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
     <t>12.0.0</t>
   </si>
   <si>
     <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
   </si>
   <si>
-    <t>REALME_9i_Android_11.0.0_2410</t>
+    <t>REALME_9i_Android_11.0.0_2410e</t>
+  </si>
+  <si>
+    <t>OPPO_A53_Android_11.0.0_bd07c</t>
   </si>
 </sst>
 </file>
@@ -1175,12 +1175,12 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.140625" style="12"/>
+    <col min="3" max="3" width="17.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1188,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>147</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bl-device\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,6 @@
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -476,13 +473,28 @@
     <t>12.0.0</t>
   </si>
   <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>REALME_9i_Android_11.0.0_2410e</t>
-  </si>
-  <si>
-    <t>OPPO_A53_Android_11.0.0_bd07c</t>
+    <t>ONEPLUS_NordCE_Android_11.0.0_ac10c</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM32_Android_11.0.0_16144</t>
+  </si>
+  <si>
+    <t>SAMSUNG_F42_Android_11.0.0_e4d82</t>
+  </si>
+  <si>
+    <t>GOOGLE_Pixel4a_Android_12.0.0_b0a52</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM12_Android_11.0.0_6e939</t>
+  </si>
+  <si>
+    <t>MOTOROLA_Nexus6_Android_7.1.1_2382b</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>https://blr-in.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -640,21 +652,83 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -989,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1125,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1172,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,26 +1257,35 @@
     <col min="3" max="3" width="17.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>137</v>
@@ -1210,8 +1293,17 @@
       <c r="D2" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1224,92 +1316,155 @@
       <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="C9" s="18">
+      <c r="E9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1322,26 +1477,55 @@
       <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="beginsWith" dxfId="3" priority="7" operator="beginsWith" text="Working">
+    <cfRule type="beginsWith" dxfId="11" priority="11" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="beginsWith" dxfId="2" priority="8" operator="beginsWith" text="Not Working">
+    <cfRule type="beginsWith" dxfId="10" priority="12" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
+    <cfRule type="beginsWith" dxfId="9" priority="7" operator="beginsWith" text="Working">
       <formula>LEFT((D2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
+    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="Not Working">
       <formula>LEFT((D2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F2">
+    <cfRule type="beginsWith" dxfId="7" priority="3" operator="beginsWith" text="Working">
+      <formula>LEFT((E2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F2">
+    <cfRule type="beginsWith" dxfId="5" priority="4" operator="beginsWith" text="Not Working">
+      <formula>LEFT((E2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
+      <formula>LEFT((G2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not Working">
+      <formula>LEFT((G2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1628,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1509,7 +1693,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1625,7 +1809,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1651,7 +1835,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bl-device\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>DBS</t>
+  </si>
+  <si>
+    <t>sakshi.juneja@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,6 +464,24 @@
     <t>EndPoint</t>
   </si>
   <si>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
+    <t>iWEALTH</t>
+  </si>
+  <si>
+    <t>NSTRAX15</t>
+  </si>
+  <si>
+    <t>425455</t>
+  </si>
+  <si>
+    <t>NSTRAX10</t>
+  </si>
+  <si>
+    <t>872465</t>
+  </si>
+  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -467,34 +491,7 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>121212</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>ONEPLUS_NordCE_Android_11.0.0_ac10c</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM32_Android_11.0.0_16144</t>
-  </si>
-  <si>
-    <t>SAMSUNG_F42_Android_11.0.0_e4d82</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel4a_Android_12.0.0_b0a52</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM12_Android_11.0.0_6e939</t>
-  </si>
-  <si>
-    <t>MOTOROLA_Nexus6_Android_7.1.1_2382b</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>https://blr-in.pcloudy.com</t>
+    <t>SAMSUNG_GalaxyS10_Android_9.0.0_01e83</t>
   </si>
 </sst>
 </file>
@@ -544,7 +541,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +554,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -593,6 +602,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,117 +675,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1063,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1149,7 +1076,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1176,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1199,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1226,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1246,64 +1173,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1313,135 +1216,69 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1451,20 +1288,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1472,62 +1297,15 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="beginsWith" dxfId="11" priority="11" operator="beginsWith" text="Working">
-      <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="beginsWith" dxfId="10" priority="12" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="beginsWith" dxfId="9" priority="7" operator="beginsWith" text="Working">
-      <formula>LEFT((D2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="Not Working">
-      <formula>LEFT((D2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="beginsWith" dxfId="7" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((E2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="beginsWith" dxfId="5" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((E2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((G2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((G2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1537,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,72 +1406,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1757,32 +1535,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1809,33 +1587,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>60</v>
+      <c r="A12" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1860,32 +1638,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1913,327 +1691,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -489,9 +489,6 @@
   </si>
   <si>
     <t>9.0.0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS10_Android_9.0.0_01e83</t>
   </si>
 </sst>
 </file>
@@ -990,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1175,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>95</v>
@@ -1200,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>139</v>

--- a/ExecutionTestData/1/TestData.xlsx
+++ b/ExecutionTestData/1/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\rerun batches\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final run master testdata\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,27 +452,15 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
     <t>https://device.pcloudy.com</t>
   </si>
   <si>
-    <t>iWEALTH</t>
-  </si>
-  <si>
-    <t>NSTRAX15</t>
-  </si>
-  <si>
-    <t>425455</t>
-  </si>
-  <si>
-    <t>NSTRAX10</t>
-  </si>
-  <si>
-    <t>872465</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -488,14 +470,29 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyJ4Plus_Android_9.0.0_94cc6</t>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyFold_Android_9.0.0_d69de</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyNote20_Android_12.0.0_2b7fa</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ8_Android_10.0.0_882d2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,8 +534,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,18 +561,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -622,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,20 +672,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -988,7 +1071,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1073,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1100,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1123,7 +1206,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1150,13 +1233,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1170,40 +1253,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1213,69 +1408,387 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1285,8 +1798,62 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1294,14 +1861,63 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1312,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,72 +2019,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>55</v>
+      <c r="A2" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1532,32 +2148,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1584,33 +2200,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1635,32 +2251,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1688,327 +2304,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
